--- a/RayTracerFramework/PC RayTracer Benchmasrk.xlsx
+++ b/RayTracerFramework/PC RayTracer Benchmasrk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h010389j\Documents\GitHub\Low-Level-Games-Programing\RayTracerFramework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\_Specific Lanaguages\C++\Low-Level-Games-Programing\RayTracerFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BE27C5-44DA-45C0-A24B-5BAAA09577DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C3C38-E1D3-4FF4-B47D-912B61B88D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{920B4DED-3D94-475F-8AE5-F4B4448B1352}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{920B4DED-3D94-475F-8AE5-F4B4448B1352}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Test</t>
   </si>
@@ -45,7 +45,13 @@
     <t>Original</t>
   </si>
   <si>
-    <t>Ten thread average</t>
+    <t>Home PC Runtime w/Files deleted</t>
+  </si>
+  <si>
+    <t>Home PC Runtime wo/Files deleted</t>
+  </si>
+  <si>
+    <t>Home PC Runtime with Vec3 inlined</t>
   </si>
 </sst>
 </file>
@@ -397,18 +403,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97F90B0-6544-47D7-A569-005ED8B96963}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -424,12 +430,46 @@
         <v>39.875</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>99.172899999999998</v>
+        <v>28.412099999999999</v>
+      </c>
+      <c r="C3">
+        <v>28.596699999999998</v>
+      </c>
+      <c r="D3">
+        <v>28.502300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>28.5656</v>
+      </c>
+      <c r="C4">
+        <v>30.383500000000002</v>
+      </c>
+      <c r="D4">
+        <v>28.3248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>28.575700000000001</v>
+      </c>
+      <c r="C5">
+        <v>28.645299999999999</v>
+      </c>
+      <c r="D5">
+        <v>28.742100000000001</v>
       </c>
     </row>
   </sheetData>

--- a/RayTracerFramework/PC RayTracer Benchmasrk.xlsx
+++ b/RayTracerFramework/PC RayTracer Benchmasrk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\_Specific Lanaguages\C++\Low-Level-Games-Programing\RayTracerFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C3C38-E1D3-4FF4-B47D-912B61B88D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570FEA3E-0F06-45E8-B727-1D51FCC9B173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{920B4DED-3D94-475F-8AE5-F4B4448B1352}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Home PC Runtime with Vec3 inlined</t>
+  </si>
+  <si>
+    <t>Home PC Runtimw with vectors sized</t>
+  </si>
+  <si>
+    <t>Home PC Runtime with sphere creation optimised</t>
   </si>
 </sst>
 </file>
@@ -403,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97F90B0-6544-47D7-A569-005ED8B96963}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -472,6 +478,34 @@
         <v>28.742100000000001</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>28.3155</v>
+      </c>
+      <c r="C6">
+        <v>28.456099999999999</v>
+      </c>
+      <c r="D6">
+        <v>28.343800000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>27.350899999999999</v>
+      </c>
+      <c r="C7">
+        <v>27.593800000000002</v>
+      </c>
+      <c r="D7">
+        <v>27.659500000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
